--- a/tests/data_minimal_case/cal_minimal.xlsx
+++ b/tests/data_minimal_case/cal_minimal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\Python\Simple Test\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteo/Projects/gcms_data_analysis/tests/data_minimal_case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE40A5E5-2626-4A95-9112-70A0038DCFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850A96C8-D383-8142-B6E4-EA5B753C3436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6D821E06-881F-4115-BBEA-B9244CF9E454}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20120" xr2:uid="{6D821E06-881F-4115-BBEA-B9244CF9E454}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="104">
   <si>
     <t>MW</t>
   </si>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t>bis(2-ethylhexyl) benzene-1,2-dicarboxylate</t>
+  </si>
+  <si>
+    <t>capric acid</t>
   </si>
 </sst>
 </file>
@@ -451,6 +454,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -859,15 +863,15 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I5" sqref="I5:N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="16" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="11" width="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
@@ -875,7 +879,7 @@
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -919,7 +923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -963,7 +967,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -1007,7 +1011,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1051,7 +1055,51 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11">
+        <v>4</v>
+      </c>
+      <c r="D5" s="11">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11">
+        <v>6</v>
+      </c>
+      <c r="F5" s="11">
+        <v>7</v>
+      </c>
+      <c r="G5" s="11">
+        <v>8</v>
+      </c>
+      <c r="H5" s="16">
+        <v>9</v>
+      </c>
+      <c r="I5" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="12">
+        <v>2000</v>
+      </c>
+      <c r="K5" s="12">
+        <v>3000</v>
+      </c>
+      <c r="L5" s="12">
+        <v>4000</v>
+      </c>
+      <c r="M5" s="12">
+        <v>5000</v>
+      </c>
+      <c r="N5" s="12">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="14"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -1066,7 +1114,7 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="14"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1081,7 +1129,7 @@
       <c r="M7" s="11"/>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="14"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -1096,7 +1144,7 @@
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="14"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1111,7 +1159,7 @@
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="15"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1126,7 +1174,7 @@
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="14"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1141,7 +1189,7 @@
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="15"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -1156,7 +1204,7 @@
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="15"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -1171,7 +1219,7 @@
       <c r="M13" s="12"/>
       <c r="N13" s="11"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="15"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -1186,7 +1234,7 @@
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="14"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1201,7 +1249,7 @@
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="14"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -1216,7 +1264,7 @@
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="14"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1231,7 +1279,7 @@
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -1246,7 +1294,7 @@
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="14"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1261,7 +1309,7 @@
       <c r="M19" s="11"/>
       <c r="N19" s="12"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="14"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -1276,7 +1324,7 @@
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -1291,7 +1339,7 @@
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="15"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1306,7 +1354,7 @@
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="15"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -1321,7 +1369,7 @@
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="14"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1336,7 +1384,7 @@
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="15"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -1368,25 +1416,25 @@
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="39.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="2" customWidth="1"/>
+    <col min="3" max="7" width="9.1640625" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="26" max="26" width="12.85546875" customWidth="1"/>
+    <col min="26" max="26" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1430,7 +1478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1474,7 +1522,7 @@
         <v>2697268</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1519,7 +1567,7 @@
       </c>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1563,7 +1611,7 @@
         <v>2832098</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1607,7 +1655,7 @@
         <v>1662279</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1651,7 +1699,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
@@ -1696,7 +1744,7 @@
         <v>5331035</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
@@ -1740,7 +1788,7 @@
         <v>6306374</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1784,7 +1832,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1828,7 +1876,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1872,7 +1920,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1916,7 +1964,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1960,7 +2008,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
@@ -2004,7 +2052,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>25</v>
       </c>
@@ -2048,7 +2096,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -2092,7 +2140,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>27</v>
       </c>
@@ -2136,7 +2184,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>28</v>
       </c>
@@ -2182,7 +2230,7 @@
       <c r="S18" s="3"/>
       <c r="U18" s="3"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>29</v>
       </c>
@@ -2228,7 +2276,7 @@
       <c r="S19" s="3"/>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -2273,7 +2321,7 @@
       </c>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2318,7 +2366,7 @@
       </c>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -2363,7 +2411,7 @@
       </c>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -2408,7 +2456,7 @@
       </c>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -2452,7 +2500,7 @@
         <v>2898882</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2496,7 +2544,7 @@
         <v>6096503</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2540,7 +2588,7 @@
         <v>6951878</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -2584,7 +2632,7 @@
         <v>5074029</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2628,7 +2676,7 @@
         <v>5581739</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2674,7 +2722,7 @@
         <v>6678602</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2724,7 +2772,7 @@
         <v>6695304</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2768,7 +2816,7 @@
         <v>10246594</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>44</v>
       </c>
@@ -2812,7 +2860,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>15</v>
       </c>
@@ -2856,7 +2904,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>45</v>
       </c>
@@ -2900,7 +2948,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>25</v>
       </c>
@@ -2944,7 +2992,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>46</v>
       </c>
@@ -2988,7 +3036,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>37</v>
       </c>
@@ -3032,7 +3080,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>47</v>
       </c>
@@ -3076,7 +3124,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>48</v>
       </c>
@@ -3120,7 +3168,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>49</v>
       </c>
@@ -3164,7 +3212,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>50</v>
       </c>
@@ -3208,7 +3256,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>51</v>
       </c>
@@ -3252,7 +3300,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>52</v>
       </c>
@@ -3296,7 +3344,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>53</v>
       </c>
@@ -3340,7 +3388,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>54</v>
       </c>
@@ -3384,7 +3432,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>55</v>
       </c>
@@ -3428,7 +3476,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>56</v>
       </c>
@@ -3472,7 +3520,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>57</v>
       </c>
@@ -3516,7 +3564,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>58</v>
       </c>
@@ -3560,7 +3608,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>59</v>
       </c>
@@ -3604,7 +3652,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>60</v>
       </c>
@@ -3648,7 +3696,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>61</v>
       </c>
@@ -3692,7 +3740,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>62</v>
       </c>
@@ -3736,7 +3784,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>63</v>
       </c>
@@ -3780,7 +3828,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>64</v>
       </c>
@@ -3824,7 +3872,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>65</v>
       </c>
@@ -3868,7 +3916,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>66</v>
       </c>
@@ -3912,7 +3960,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>67</v>
       </c>
@@ -3956,7 +4004,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>68</v>
       </c>
@@ -4000,7 +4048,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>69</v>
       </c>
@@ -4044,7 +4092,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>70</v>
       </c>
@@ -4088,7 +4136,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>71</v>
       </c>
@@ -4132,7 +4180,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>72</v>
       </c>
@@ -4176,7 +4224,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>73</v>
       </c>
@@ -4220,7 +4268,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>74</v>
       </c>
@@ -4264,7 +4312,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>75</v>
       </c>
@@ -4308,7 +4356,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>76</v>
       </c>
@@ -4352,7 +4400,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>77</v>
       </c>
@@ -4396,7 +4444,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>78</v>
       </c>
@@ -4440,7 +4488,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>79</v>
       </c>
@@ -4484,7 +4532,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>80</v>
       </c>
@@ -4528,7 +4576,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>81</v>
       </c>
@@ -4572,7 +4620,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>82</v>
       </c>
@@ -4616,7 +4664,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>83</v>
       </c>
@@ -4660,7 +4708,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>84</v>
       </c>
@@ -4704,7 +4752,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>85</v>
       </c>
@@ -4748,7 +4796,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>86</v>
       </c>
@@ -4792,7 +4840,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>87</v>
       </c>
@@ -4836,7 +4884,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>88</v>
       </c>
@@ -4880,7 +4928,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>89</v>
       </c>
@@ -4924,7 +4972,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>90</v>
       </c>
@@ -4968,7 +5016,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>91</v>
       </c>
@@ -5012,7 +5060,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>92</v>
       </c>
@@ -5056,7 +5104,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>93</v>
       </c>
@@ -5100,7 +5148,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>94</v>
       </c>
@@ -5144,7 +5192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>95</v>
       </c>
@@ -5188,7 +5236,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>96</v>
       </c>
@@ -5232,7 +5280,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>97</v>
       </c>
@@ -5276,7 +5324,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>98</v>
       </c>
@@ -5320,7 +5368,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>99</v>
       </c>
@@ -5364,7 +5412,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>100</v>
       </c>
@@ -5408,7 +5456,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>101</v>
       </c>
@@ -5452,7 +5500,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>102</v>
       </c>
@@ -5726,18 +5774,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5760,6 +5808,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C9A587-8C95-48B5-A842-F4721C9A3A50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E757D89-FBD1-4745-9BBB-5EBBB2D8B99C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -5774,12 +5830,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C9A587-8C95-48B5-A842-F4721C9A3A50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>